--- a/Model_Metrics/Table_1.xlsx
+++ b/Model_Metrics/Table_1.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidchen/Documents/GitHub/Raman_Spectroscopy_COVID_19/Model_Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F22BCEA-0D03-A843-93B8-ACD2C54E582F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A555A7C-3DC6-DB47-9230-8783BD1D65B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="18020" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranked_Scores" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>model</t>
   </si>
@@ -83,15 +93,25 @@
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>Subsemble</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,37 +506,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>0.36227333545684809</v>
+        <v>7.02</v>
       </c>
       <c r="D2">
-        <v>6.3802480697631838E-3</v>
+        <v>1.04</v>
       </c>
       <c r="E2">
-        <v>0.92454055324117701</v>
+        <v>0.94679500000000005</v>
       </c>
       <c r="F2">
-        <v>0.92007495219483615</v>
+        <v>0.93569000000000002</v>
       </c>
       <c r="G2">
-        <v>0.96000000000000019</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H2">
-        <v>0.99230769230769234</v>
+        <v>0.98571399999999998</v>
       </c>
       <c r="I2">
-        <v>0.92948717948717952</v>
+        <v>0.98571399999999998</v>
       </c>
       <c r="J2">
-        <v>0.95824242424242434</v>
-      </c>
-      <c r="K2">
-        <v>0.9865384615384617</v>
-      </c>
-      <c r="L2">
-        <v>0.78220498294870922</v>
+        <v>0.96241100000000002</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(E2:J2)</f>
+        <v>0.96672066666666667</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -523,37 +542,38 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.13921151161193851</v>
+        <v>8.1594705581665046E-3</v>
       </c>
       <c r="D3">
-        <v>3.2024359703063963E-2</v>
+        <v>6.0327291488647457E-3</v>
       </c>
       <c r="E3">
-        <v>0.93937749051591302</v>
+        <v>0.94642670472102886</v>
       </c>
       <c r="F3">
-        <v>0.93599851907381715</v>
+        <v>0.94383213598207583</v>
       </c>
       <c r="G3">
-        <v>0.96799999999999997</v>
+        <v>0.97200000000000009</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.97183150183150191</v>
       </c>
       <c r="I3">
-        <v>0.93717948717948718</v>
+        <v>0.97628205128205126</v>
       </c>
       <c r="J3">
-        <v>0.96657575757575775</v>
+        <v>0.97280561306648272</v>
       </c>
       <c r="K3">
-        <v>0.99487179487179489</v>
-      </c>
-      <c r="L3">
-        <v>0.76813765783686361</v>
+        <v>0.99166666666666659</v>
+      </c>
+      <c r="L3" s="1">
+        <f>AVERAGE(E3:J3)</f>
+        <v>0.96386300114719015</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -561,37 +581,38 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.17014839649200439</v>
+        <v>6.0415267944335938E-3</v>
       </c>
       <c r="D4">
-        <v>2.7223157882690429E-2</v>
+        <v>6.5496206283569332E-3</v>
       </c>
       <c r="E4">
-        <v>0.93168518282360535</v>
+        <v>0.94684268635418023</v>
       </c>
       <c r="F4">
-        <v>0.92801129862653275</v>
+        <v>0.94372890938029896</v>
       </c>
       <c r="G4">
-        <v>0.96400000000000008</v>
+        <v>0.97200000000000009</v>
       </c>
       <c r="H4">
-        <v>0.99230769230769234</v>
+        <v>0.97952380952380957</v>
       </c>
       <c r="I4">
-        <v>0.93717948717948718</v>
+        <v>0.96794871794871806</v>
       </c>
       <c r="J4">
-        <v>0.96257575757575764</v>
+        <v>0.97206253006253007</v>
       </c>
       <c r="K4">
-        <v>0.99679487179487192</v>
-      </c>
-      <c r="L4">
-        <v>0.76776953829807137</v>
+        <v>0.99038461538461531</v>
+      </c>
+      <c r="L4" s="1">
+        <f>AVERAGE(E4:J4)</f>
+        <v>0.96368444221158944</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -599,37 +620,38 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>2.2315263748168951E-3</v>
+        <v>0.13921151161193851</v>
       </c>
       <c r="D5">
-        <v>7.8233480453491211E-3</v>
+        <v>3.2024359703063963E-2</v>
       </c>
       <c r="E5">
-        <v>0.9695513354866081</v>
+        <v>0.93937749051591302</v>
       </c>
       <c r="F5">
-        <v>0.96784516208564786</v>
+        <v>0.93599851907381715</v>
       </c>
       <c r="G5">
-        <v>0.98399999999999999</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="H5">
-        <v>0.98666666666666669</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0.98397435897435892</v>
+        <v>0.93717948717948718</v>
       </c>
       <c r="J5">
-        <v>0.98450931677018638</v>
+        <v>0.96657575757575775</v>
       </c>
       <c r="K5">
-        <v>0.98782051282051275</v>
-      </c>
-      <c r="L5">
-        <v>0.76382469191379398</v>
+        <v>0.99487179487179489</v>
+      </c>
+      <c r="L5" s="1">
+        <f>AVERAGE(E5:J5)</f>
+        <v>0.95785520905749577</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -637,37 +659,38 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>0.20480847358703611</v>
+        <v>0.17014839649200439</v>
       </c>
       <c r="D6">
-        <v>6.3851118087768551E-3</v>
+        <v>2.7223157882690429E-2</v>
       </c>
       <c r="E6">
-        <v>0.90598607011031973</v>
+        <v>0.93168518282360535</v>
       </c>
       <c r="F6">
-        <v>0.90374226872179064</v>
+        <v>0.92801129862653275</v>
       </c>
       <c r="G6">
-        <v>0.95200000000000018</v>
+        <v>0.96400000000000008</v>
       </c>
       <c r="H6">
-        <v>0.95494505494505511</v>
+        <v>0.99230769230769234</v>
       </c>
       <c r="I6">
-        <v>0.95256410256410273</v>
+        <v>0.93717948717948718</v>
       </c>
       <c r="J6">
-        <v>0.95241336441336455</v>
+        <v>0.96257575757575764</v>
       </c>
       <c r="K6">
-        <v>0.98717948717948723</v>
-      </c>
-      <c r="L6">
-        <v>0.7577804370366592</v>
+        <v>0.99679487179487192</v>
+      </c>
+      <c r="L6" s="1">
+        <f>AVERAGE(E6:J6)</f>
+        <v>0.95262656975217919</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -675,37 +698,38 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>8.1594705581665046E-3</v>
+        <v>2.1069999999999999E-3</v>
       </c>
       <c r="D7">
-        <v>6.0327291488647457E-3</v>
+        <v>7.3400000000000002E-3</v>
       </c>
       <c r="E7">
-        <v>0.94642670472102886</v>
+        <v>0.92457699999999998</v>
       </c>
       <c r="F7">
-        <v>0.94383213598207583</v>
+        <v>0.920126</v>
       </c>
       <c r="G7">
-        <v>0.97200000000000009</v>
+        <v>0.96</v>
       </c>
       <c r="H7">
-        <v>0.97183150183150191</v>
+        <v>0.95659300000000003</v>
       </c>
       <c r="I7">
-        <v>0.97628205128205126</v>
+        <v>0.96923099999999995</v>
       </c>
       <c r="J7">
-        <v>0.97280561306648272</v>
+        <v>0.96052999999999999</v>
       </c>
       <c r="K7">
-        <v>0.99166666666666659</v>
-      </c>
-      <c r="L7">
-        <v>0.75433743036187095</v>
+        <v>0.97307699999999997</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(E7:J7)</f>
+        <v>0.94850950000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -713,37 +737,38 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>6.0415267944335938E-3</v>
+        <v>0.36227333545684809</v>
       </c>
       <c r="D8">
-        <v>6.5496206283569332E-3</v>
+        <v>6.3802480697631838E-3</v>
       </c>
       <c r="E8">
-        <v>0.94684268635418023</v>
+        <v>0.92454055324117701</v>
       </c>
       <c r="F8">
-        <v>0.94372890938029896</v>
+        <v>0.92007495219483615</v>
       </c>
       <c r="G8">
-        <v>0.97200000000000009</v>
+        <v>0.96000000000000019</v>
       </c>
       <c r="H8">
-        <v>0.97952380952380957</v>
+        <v>0.99230769230769234</v>
       </c>
       <c r="I8">
-        <v>0.96794871794871806</v>
+        <v>0.92948717948717952</v>
       </c>
       <c r="J8">
-        <v>0.97206253006253007</v>
+        <v>0.95824242424242434</v>
       </c>
       <c r="K8">
-        <v>0.99038461538461531</v>
-      </c>
-      <c r="L8">
-        <v>0.75389804623077139</v>
+        <v>0.9865384615384617</v>
+      </c>
+      <c r="L8" s="1">
+        <f>AVERAGE(E8:J8)</f>
+        <v>0.94744213357888496</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -751,37 +776,38 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>6.956183910369873E-2</v>
+        <v>0.20480847358703611</v>
       </c>
       <c r="D9">
-        <v>1.6663622856140141E-2</v>
+        <v>6.3851118087768551E-3</v>
       </c>
       <c r="E9">
-        <v>0.9013702826331077</v>
+        <v>0.90598607011031973</v>
       </c>
       <c r="F9">
-        <v>0.89611296473749869</v>
+        <v>0.90374226872179064</v>
       </c>
       <c r="G9">
-        <v>0.94800000000000006</v>
+        <v>0.95200000000000018</v>
       </c>
       <c r="H9">
-        <v>0.97692307692307701</v>
+        <v>0.95494505494505511</v>
       </c>
       <c r="I9">
-        <v>0.92179487179487174</v>
+        <v>0.95256410256410273</v>
       </c>
       <c r="J9">
-        <v>0.94621678321678326</v>
+        <v>0.95241336441336455</v>
       </c>
       <c r="K9">
-        <v>0.99230769230769234</v>
-      </c>
-      <c r="L9">
-        <v>0.74099457039698557</v>
+        <v>0.98717948717948723</v>
+      </c>
+      <c r="L9" s="1">
+        <f>AVERAGE(E9:J9)</f>
+        <v>0.93694181012577216</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -789,42 +815,82 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>6.956183910369873E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.6663622856140141E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.9013702826331077</v>
+      </c>
+      <c r="F10">
+        <v>0.89611296473749869</v>
+      </c>
+      <c r="G10">
+        <v>0.94800000000000006</v>
+      </c>
+      <c r="H10">
+        <v>0.97692307692307701</v>
+      </c>
+      <c r="I10">
+        <v>0.92179487179487174</v>
+      </c>
+      <c r="J10">
+        <v>0.94621678321678326</v>
+      </c>
+      <c r="K10">
+        <v>0.99230769230769234</v>
+      </c>
+      <c r="L10" s="1">
+        <f>AVERAGE(E10:J10)</f>
+        <v>0.93173632988422306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3.6211967468261718E-3</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>6.3750505447387699E-3</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0.87556537515890587</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.87174120216351025</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>0.93599999999999994</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>0.92583583083583088</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>0.95256410256410251</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>0.93730654208915087</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.93589743589743579</v>
       </c>
-      <c r="L10">
-        <v>0.71610074844450011</v>
+      <c r="L11" s="1">
+        <f>AVERAGE(E11:J11)</f>
+        <v>0.91650217546858348</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L10">
-    <sortCondition descending="1" ref="L2:L10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">
+    <sortCondition descending="1" ref="L2:L11"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
